--- a/report/reliability/by-unidade/UFAL A.C. Simões.xlsx
+++ b/report/reliability/by-unidade/UFAL A.C. Simões.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9066770319105574</v>
+        <v>0.8802940983439598</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9074476883723703</v>
+        <v>0.8812965045623622</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9206157800685479</v>
+        <v>0.8945932796896524</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3657828762945492</v>
+        <v>0.36350489080112214</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>9.804700416596294</v>
+        <v>7.424351754033743</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.008641993830385455</v>
+        <v>0.011207960403179663</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5799365389309252</v>
+        <v>2.4535588892435367</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6779949079075229</v>
+        <v>0.7010911233848686</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3596165365018187</v>
+        <v>0.35439001179235385</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.899204264986922</v>
+        <v>0.8730763511746849</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.9004691440395862</v>
+        <v>0.874156908922731</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9127235804669557</v>
+        <v>0.8847717406007193</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.36120439896090345</v>
+        <v>0.36663441712004274</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>9.04713553752344</v>
+        <v>6.946403663797403</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.009382430367117747</v>
+        <v>0.011945033300856995</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.009784416836015549</v>
+        <v>0.01034534290163887</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.35550957526604443</v>
+        <v>0.3547442749970704</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8994693086698327</v>
+        <v>0.8672230191339865</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.9006900468599752</v>
+        <v>0.8693417583643037</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9133683262895324</v>
+        <v>0.8800880363719927</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3617738642583054</v>
+        <v>0.3566909798231842</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>9.069484159256653</v>
+        <v>6.653554704862923</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.009336951380792194</v>
+        <v>0.012522460443158405</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.009791268662631804</v>
+        <v>0.010066572482294454</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.3568568502112751</v>
+        <v>0.3517007665349079</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.9014318386438306</v>
+        <v>0.8671845859368581</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.9021429347808734</v>
+        <v>0.8690289018419033</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9137301859371596</v>
+        <v>0.8814074577489301</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.3655573674956147</v>
+        <v>0.35605985271740614</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>9.218986209741205</v>
+        <v>6.6352723162853</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.009158902015403526</v>
+        <v>0.012497807583954346</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.009459161019223594</v>
+        <v>0.0104336867208067</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3596165365018187</v>
+        <v>0.3538133417491126</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8987021924138706</v>
+        <v>0.8654775967683934</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8998775568759603</v>
+        <v>0.866997305385576</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9117953092717688</v>
+        <v>0.8784553564517346</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.3596867757154178</v>
+        <v>0.35200441401043103</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>8.987770661580036</v>
+        <v>6.518644662794306</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.009406435078613941</v>
+        <v>0.012657596912062788</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.009867711886054878</v>
+        <v>0.010293802501969516</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.35432858513754484</v>
+        <v>0.34155362693070174</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.9021002138977335</v>
+        <v>0.880966977330275</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.902548347223309</v>
+        <v>0.8817597374395266</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9148784980889474</v>
+        <v>0.8922605977566525</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.366625066713858</v>
+        <v>0.383266669492866</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>9.261498615025904</v>
+        <v>7.457356050681601</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.009070332508068244</v>
+        <v>0.011160935401283245</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.01090369707570592</v>
+        <v>0.009768717049971086</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.36423581707947317</v>
+        <v>0.37431694989822517</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.9008018468332598</v>
+        <v>0.8701807906374971</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.9012964883579596</v>
+        <v>0.8705283672962614</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9143839419616333</v>
+        <v>0.883545254810481</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.36334503095854526</v>
+        <v>0.3591010192911048</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>9.131351796546156</v>
+        <v>6.723699617569775</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.009184457255297195</v>
+        <v>0.012163156579553986</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.011021364786311683</v>
+        <v>0.012326316221683774</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.3568568502112751</v>
+        <v>0.35439001179235385</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.900678152414886</v>
+        <v>0.8762417452884914</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.9014308094246771</v>
+        <v>0.8772107786929914</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9147330909289595</v>
+        <v>0.8878932024654436</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.36369458964931717</v>
+        <v>0.3731729726811932</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>9.145157875024234</v>
+        <v>7.14403731333804</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.009210406591138594</v>
+        <v>0.011603084686671001</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.010731468967738467</v>
+        <v>0.011772261289786218</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.35550957526604443</v>
+        <v>0.36795746594000334</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8993500508237785</v>
+        <v>0.8717464845267935</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.9001981575310762</v>
+        <v>0.8716290774211972</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9136448920900012</v>
+        <v>0.8834249978475027</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.36050788712951326</v>
+        <v>0.36135991501416703</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>9.019855097478588</v>
+        <v>6.789926097836777</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.009370125272609985</v>
+        <v>0.012018221035822134</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.010512734244424508</v>
+        <v>0.012001971341702604</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3532090216638542</v>
+        <v>0.35439001179235385</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.9045788875116844</v>
+        <v>0.8703262281808927</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9054747365556113</v>
+        <v>0.87139718978484</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9166933134610064</v>
+        <v>0.8843606635680265</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.37449134330392025</v>
+        <v>0.36088214779405736</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.579182364176347</v>
+        <v>6.775879845292204</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.008839556260019301</v>
+        <v>0.01217734091379116</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.010431779103266425</v>
+        <v>0.011734937202505891</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.3689101566387991</v>
+        <v>0.3476772951178412</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.9071396572738689</v>
+        <v>0.8678300225911849</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9077726359553812</v>
+        <v>0.8691020433552327</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9195117429762795</v>
+        <v>0.8830101544994994</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3808712980560094</v>
+        <v>0.3562072420150349</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>9.842768958638002</v>
+        <v>6.639538657687484</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.008601086447445842</v>
+        <v>0.012472138501735442</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.009210114582334004</v>
+        <v>0.011794413885831408</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.37258908307557215</v>
+        <v>0.3369385401054543</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.9003973834026887</v>
+        <v>0.8718290995292738</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.9011853912388276</v>
+        <v>0.8729120492406498</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9144757343715653</v>
+        <v>0.8864056880962865</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.36305633931850456</v>
+        <v>0.3640216409943474</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>9.119961132639048</v>
+        <v>6.868566563745833</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.009231262524589475</v>
+        <v>0.012023729244063638</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.01120266232499565</v>
+        <v>0.012978134951468864</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.35432858513754484</v>
+        <v>0.3517007665349079</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8979802754481861</v>
+        <v>0.8746780582922867</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8989686366610101</v>
+        <v>0.876051054788749</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9120722724544668</v>
+        <v>0.8883185512495029</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.3573759479586364</v>
+        <v>0.37066803001116755</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>8.897916517712495</v>
+        <v>7.067837917423678</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.009475112899645012</v>
+        <v>0.01178004225436649</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.009757552246613389</v>
+        <v>0.012148304064345906</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3517007665349079</v>
+        <v>0.3568568502112751</v>
       </c>
     </row>
     <row r="23">
@@ -2897,678 +2885,642 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.9005078306896256</v>
+        <v>0.8726845082438631</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.9007984770443996</v>
+        <v>0.8736154420013931</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9140897793241373</v>
+        <v>0.887681611304897</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.3620539413839371</v>
+        <v>0.36549427944958585</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>9.080490401821466</v>
+        <v>6.912359040026258</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.009236596285956905</v>
+        <v>0.01195313554648284</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.010517147091027185</v>
+        <v>0.013262520244242517</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.355321596878059</v>
+        <v>0.3538133417491126</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.9043531963313965</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9052967640652828</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9183735366906897</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.3740047966282569</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>9.55930127550595</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.008869653386812306</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.01095105649294942</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.3689101566387991</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.9012929058573688</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.9021833366130143</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9162160377670265</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.3656635341379717</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>9.223207021934144</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.009155721533356753</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.011256084116951563</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.3568568502112751</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.9018854127481774</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.9025684183665151</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9165939975260776</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3666780633821393</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>9.263612508742485</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.00909366542702043</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.011641627205491495</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.3596165365018187</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.9034958137958329</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.9044552328201785</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9171946197583919</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.3717186519564858</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>9.466297940921612</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.008954300103615144</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.010943978122603407</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.36423581707947317</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>241.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.6407218218640015</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.6174960329371937</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.5845677434255035</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.5457928834379534</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.4896265560165975</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.2816396828380325</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>241.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.7166155951693244</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.6960997379654453</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.680669609450205</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.6388013573308465</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.2655601659751037</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.2533357979434876</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>241.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.7113545217379968</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.7010888506210443</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.6820913920118594</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.6426656965491193</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.132780082987552</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.1100882797935456</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>241.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.7397291980803713</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.733147433419564</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.7217280733951076</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6798594461407454</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.929460580912863</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.0563317618759716</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>241.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7034981064352658</v>
+        <v>0.47014488633030327</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6857975775161533</v>
+        <v>0.4860166842534268</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6729852995105681</v>
+        <v>0.4226326866722442</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6417813194359802</v>
+        <v>0.3731684120077482</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.2655601659751037</v>
+        <v>3.4107883817427385</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.2533357979434876</v>
+        <v>1.0494680204105573</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>241.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6895762335082969</v>
+        <v>0.6627497243677927</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.6794661928150874</v>
+        <v>0.6770481740256074</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.6641653689355816</v>
+        <v>0.6462842704212679</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.633702103660736</v>
+        <v>0.596931601423776</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.132780082987552</v>
+        <v>2.12448132780083</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1100882797935456</v>
+        <v>0.9623442734757468</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>241.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6540066295103354</v>
+        <v>0.5452900273962424</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.6374007419045147</v>
+        <v>0.5658082033370736</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.6196472214158983</v>
+        <v>0.517659965487148</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.5829871240843951</v>
+        <v>0.46543825992100407</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.4896265560165975</v>
+        <v>2.79253112033195</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.2816396828380325</v>
+        <v>0.9522485582744785</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>241.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.711351638439835</v>
+        <v>0.6357988779553405</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.7026706980421774</v>
+        <v>0.6591914140537548</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6928609121871068</v>
+        <v>0.6291817185975577</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.6613537058522723</v>
+        <v>0.5724687963924548</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.929460580912863</v>
+        <v>2.087136929460581</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.0563317618759716</v>
+        <v>0.883105610146487</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>241.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6091058809185877</v>
+        <v>0.6643336195368009</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6255299316434375</v>
+        <v>0.6629682039625654</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.6004841658457006</v>
+        <v>0.6294184523716612</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5574227738508233</v>
+        <v>0.5847588605644197</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.087136929460581</v>
+        <v>2.5103734439834025</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.883105610146487</v>
+        <v>1.1442320321035588</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>241.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6507124066597437</v>
+        <v>0.7101862706471604</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6619977696221235</v>
+        <v>0.6999237258730067</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6389687836394278</v>
+        <v>0.6717831826893237</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5984628446896498</v>
+        <v>0.6295676834687838</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.12448132780083</v>
+        <v>2.087136929460581</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9623442734757468</v>
+        <v>1.2733978896397096</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>241.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.658522338857005</v>
+        <v>0.6447433377790002</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6581113334214012</v>
+        <v>0.6381502471447795</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6331370820079543</v>
+        <v>0.5955191536836208</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5964629282894726</v>
+        <v>0.559009331804931</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.5103734439834025</v>
+        <v>2.929460580912863</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.1442320321035588</v>
+        <v>1.1793374373553969</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>241.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.7017641600851028</v>
+        <v>0.5818443402991114</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.6935414810928855</v>
+        <v>0.5856099850418351</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.6746844060061802</v>
+        <v>0.5361659560390611</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.6386586220960928</v>
+        <v>0.49997131658183674</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.087136929460581</v>
+        <v>2.236514522821577</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.2733978896397096</v>
+        <v>1.0237160092020356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>241.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.5242516375437899</v>
+        <v>0.6153919885122217</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.538071708141673</v>
+        <v>0.626508916758416</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.5024364973435669</v>
+        <v>0.5790820588201356</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.4603846882583364</v>
+        <v>0.5432023182468446</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.79253112033195</v>
+        <v>2.900414937759336</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.9522485582744785</v>
+        <v>0.9609239444978291</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>241.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.4564037387688833</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.46713859229569954</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.4186135143808095</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.37983738864018635</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.4107883817427385</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.0494680204105573</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>241.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.6684234196727323</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.6652074785217148</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.6408521067873423</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6056455502023768</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.929460580912863</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.1793374373553969</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>241.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.733862335675315</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.7283627631650825</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.7175820095228005</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.68843413733213</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.7510373443983402</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>1.026852473710928</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>241.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.6683828066521021</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.6763522611384186</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.6556930552709754</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.6236099673200092</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.66804979253112</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.8646868012043668</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>241.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.5352358384759144</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.5434811934829284</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.49989215279404337</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.47013532356195775</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.775933609958506</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.982981041987754</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.2074688796680498</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.44398340248962653</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.13692946058091288</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.07468879668049792</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.13692946058091288</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>241.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6369819527210877</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.6362203682131774</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.6033881499554858</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.5766564954829685</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.767634854771784</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.0704118208023565</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.38589211618257263</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.21991701244813278</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.17842323651452283</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.17427385892116182</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.04149377593360996</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>241.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.6153259591420545</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.6249407082152592</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.5896714177231154</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.5593797306923659</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.900414937759336</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.9609239444978291</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.4149377593360996</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.15767634854771784</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.3278008298755187</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.07883817427385892</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.02074688796680498</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>241.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5671405125761521</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5688988290531961</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5308656758490352</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.5022064107745554</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.236514522821577</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.0237160092020356</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.44398340248962653</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.3153526970954357</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.12448132780082988</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.0995850622406639</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.016597510373443983</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.06224066390041494</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.12448132780082988</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.2697095435684647</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.42738589211618255</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.11618257261410789</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.2821576763485477</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.42738589211618255</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.1825726141078838</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.0995850622406639</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.008298755186721992</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.06224066390041494</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.34024896265560167</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.3900414937759336</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.15767634854771784</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.04979253112033195</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.23651452282157676</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.5311203319502075</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.16182572614107885</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.04979253112033195</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.02074688796680498</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.38589211618257263</v>
+        <v>0.1991701244813278</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.21991701244813278</v>
+        <v>0.3775933609958506</v>
       </c>
       <c r="D53" t="n" s="111">
         <v>0.17842323651452283</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.17427385892116182</v>
+        <v>0.2033195020746888</v>
       </c>
       <c r="F53" t="n" s="113">
         <v>0.04149377593360996</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.4149377593360996</v>
+        <v>0.45228215767634855</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.15767634854771784</v>
+        <v>0.24896265560165975</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3278008298755187</v>
+        <v>0.13278008298755187</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.07883817427385892</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.02074688796680498</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
-        <v>0.2074688796680498</v>
+        <v>0.16182572614107885</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.44398340248962653</v>
+        <v>0.16597510373443983</v>
       </c>
       <c r="D55" t="n" s="111">
-        <v>0.13692946058091288</v>
+        <v>0.33195020746887965</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.07468879668049792</v>
+        <v>0.26141078838174275</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.13692946058091288</v>
+        <v>0.07883817427385892</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.44398340248962653</v>
+        <v>0.29045643153526973</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.3153526970954357</v>
+        <v>0.3029045643153527</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.12448132780082988</v>
+        <v>0.3070539419087137</v>
       </c>
       <c r="E56" t="n" s="112">
-        <v>0.0995850622406639</v>
+        <v>0.07883817427385892</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.016597510373443983</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.23651452282157676</v>
+        <v>0.08298755186721991</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.5311203319502075</v>
+        <v>0.21991701244813278</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.16182572614107885</v>
+        <v>0.45643153526970953</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.04979253112033195</v>
+        <v>0.1950207468879668</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.02074688796680498</v>
+        <v>0.04564315352697095</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.2821576763485477</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.42738589211618255</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.1825726141078838</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.0995850622406639</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.008298755186721992</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.1991701244813278</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.3775933609958506</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.17842323651452283</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.2033195020746888</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.04149377593360996</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.45228215767634855</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.24896265560165975</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.13278008298755187</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.0912863070539419</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.07468879668049792</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.06224066390041494</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.34024896265560167</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.3900414937759336</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.15767634854771784</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.04979253112033195</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.06224066390041494</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.12448132780082988</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.2697095435684647</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.42738589211618255</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.11618257261410789</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.16182572614107885</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.16597510373443983</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.33195020746887965</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.26141078838174275</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.07883817427385892</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.03319502074688797</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.5062240663900415</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.21161825726141079</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.17427385892116182</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.07468879668049792</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.06639004149377593</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.35269709543568467</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.46887966804979253</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.07053941908713693</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.04149377593360996</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.004149377593360996</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.0954356846473029</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.3070539419087137</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.3070539419087137</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.2863070539419087</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.0995850622406639</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.36929460580912865</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.24066390041493776</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.24481327800829875</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.04564315352697095</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.08298755186721991</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.21991701244813278</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.45643153526970953</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.1950207468879668</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.04564315352697095</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.29045643153526973</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.3029045643153527</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.3070539419087137</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.07883817427385892</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.02074688796680498</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.771321418649875</v>
+        <v>0.8233746592107619</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7779259306352035</v>
+        <v>0.8266417463930986</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.7122656207088255</v>
+        <v>0.7609070180860236</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.5386746066920388</v>
+        <v>0.6138201633121159</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>3.503002096824373</v>
+        <v>4.768401441488622</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.02567586396794043</v>
+        <v>0.019514615046669726</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.008648138817587707</v>
+        <v>1.4024644702527298E-4</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.5486269650263941</v>
+        <v>0.6124371332539358</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.7797968293412485</v>
+        <v>0.771321418649875</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7821531879028915</v>
+        <v>0.7779259306352035</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.7174415250014833</v>
+        <v>0.7122656207088254</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.5447911551058638</v>
+        <v>0.5386746066920388</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>3.5903816097810735</v>
+        <v>3.503002096824373</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.02422561258079248</v>
+        <v>0.02567586396794043</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.008100519698331966</v>
+        <v>0.008648138817587707</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.5905402999550892</v>
+        <v>0.5486269650263941</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8233746592107619</v>
+        <v>0.7797968293412485</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.8266417463930986</v>
+        <v>0.7821531879028915</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.7609070180860236</v>
+        <v>0.7174415250014832</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.6138201633121159</v>
+        <v>0.5447911551058638</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>4.768401441488622</v>
+        <v>3.5903816097810735</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.019514615046669726</v>
+        <v>0.02422561258079248</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>1.4024644702527298E-4</v>
+        <v>0.008100519698331966</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.6124371332539358</v>
+        <v>0.5905402999550892</v>
       </c>
     </row>
     <row r="14">
@@ -4197,7 +3873,7 @@
         <v>4.2092532105036975</v>
       </c>
       <c r="G14" t="n" s="177">
-        <v>0.02149173398538189</v>
+        <v>0.021491733985381862</v>
       </c>
       <c r="H14" t="n" s="178">
         <v>0.0010513227537649371</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>241.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8594415277172371</v>
+        <v>0.8000284758478705</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8520368391261138</v>
+        <v>0.7835762588331828</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.7874373635117128</v>
+        <v>0.6707945128732189</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7234016775466185</v>
+        <v>0.6158109376127543</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.2655601659751037</v>
+        <v>2.4896265560165975</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.2533357979434876</v>
+        <v>1.2816396828380325</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>241.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8376517555601409</v>
+        <v>0.8594415277172371</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8464644211065447</v>
+        <v>0.8520368391261138</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.7781195791874805</v>
+        <v>0.7874373635117128</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.7101057518328385</v>
+        <v>0.7234016775466185</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.132780082987552</v>
+        <v>2.2655601659751037</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.1100882797935456</v>
+        <v>1.2533357979434876</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>241.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.8000284758478705</v>
+        <v>0.8376517555601409</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.7835762588331828</v>
+        <v>0.8464644211065447</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.6707945128732189</v>
+        <v>0.7781195791874808</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.6158109376127543</v>
+        <v>0.7101057518328385</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.4896265560165975</v>
+        <v>2.132780082987552</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.2816396828380325</v>
+        <v>1.1100882797935456</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.8108637457558487</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.7229282024428351</v>
+        <v>0.7229282024428348</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.6503823339535312</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.38589211618257263</v>
+        <v>0.2074688796680498</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.21991701244813278</v>
+        <v>0.44398340248962653</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.17842323651452283</v>
+        <v>0.13692946058091288</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.17427385892116182</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.04149377593360996</v>
+        <v>0.13692946058091288</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.4149377593360996</v>
+        <v>0.38589211618257263</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.15767634854771784</v>
+        <v>0.21991701244813278</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.3278008298755187</v>
+        <v>0.17842323651452283</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.07883817427385892</v>
+        <v>0.17427385892116182</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.02074688796680498</v>
+        <v>0.04149377593360996</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.2074688796680498</v>
+        <v>0.4149377593360996</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.44398340248962653</v>
+        <v>0.15767634854771784</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.13692946058091288</v>
+        <v>0.3278008298755187</v>
       </c>
       <c r="E29" t="n" s="226">
-        <v>0.07468879668049792</v>
+        <v>0.07883817427385892</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.13692946058091288</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.789981696254869</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.7817365070020716</v>
+        <v>0.7817365070020718</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.38533972217295204</v>
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7245584404963408</v>
+        <v>0.7841225043937549</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7295488751764414</v>
+        <v>0.7921666152846163</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7133842182851404</v>
+        <v>0.7668455195511725</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.3504406275535336</v>
+        <v>0.43256271917406924</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.6975257568346094</v>
+        <v>3.8115465249697253</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.02799656484691486</v>
+        <v>0.021656200042200327</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.01606668826247826</v>
+        <v>0.009158837416383266</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.3393930901462898</v>
+        <v>0.4761472532160004</v>
       </c>
     </row>
     <row r="12">
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7507544913589386</v>
+        <v>0.7535242870648493</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7634424288138808</v>
+        <v>0.7634780043294399</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7404874975229193</v>
+        <v>0.7395863079862078</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.39226726395027517</v>
+        <v>0.39231422788868925</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>3.2273007580603634</v>
+        <v>3.2279365906959927</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.02556257887279801</v>
+        <v>0.02489375705431116</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.010767322313535568</v>
+        <v>0.018427877475731158</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.3944841889149053</v>
+        <v>0.4558864775034218</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7494369928111494</v>
+        <v>0.7245584404963408</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7587704611953873</v>
+        <v>0.7295488751764414</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7439817031564208</v>
+        <v>0.7133842182851404</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.3861588123557394</v>
+        <v>0.3504406275535336</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>3.1454293075192763</v>
+        <v>2.6975257568346094</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.026004610219981704</v>
+        <v>0.02799656484691486</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.016673097254043676</v>
+        <v>0.01606668826247826</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.403916594894846</v>
+        <v>0.3393930901462898</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7535242870648493</v>
+        <v>0.7507544913589386</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7634780043294399</v>
+        <v>0.7634424288138808</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.7395863079862077</v>
+        <v>0.7404874975229193</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.39231422788868925</v>
+        <v>0.39226726395027517</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>3.2279365906959927</v>
+        <v>3.2273007580603634</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.02489375705431116</v>
+        <v>0.02556257887279801</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.018427877475731158</v>
+        <v>0.01076732231353557</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.4558864775034218</v>
+        <v>0.3944841889149053</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.7841225043937549</v>
+        <v>0.7494369928111494</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.7921666152846163</v>
+        <v>0.7587704611953873</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.7668455195511726</v>
+        <v>0.7439817031564208</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.43256271917406924</v>
+        <v>0.3861588123557394</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>3.8115465249697253</v>
+        <v>3.1454293075192763</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.021656200042200327</v>
+        <v>0.026004610219981704</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.009158837416383266</v>
+        <v>0.016673097254043676</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.4761472532160004</v>
+        <v>0.403916594894846</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>241.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.7609993700427164</v>
+        <v>0.5748754190957621</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.7816963971085583</v>
+        <v>0.5857237872974252</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.7356326345039237</v>
+        <v>0.45805455622194463</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.652490786180039</v>
+        <v>0.37825705134288695</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.087136929460581</v>
+        <v>3.4107883817427385</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.883105610146487</v>
+        <v>1.0494680204105573</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.7629538207845005</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.7083825853133139</v>
+        <v>0.708382585313314</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.6328548025505603</v>
@@ -4895,22 +4571,22 @@
         <v>241.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.6997749979609802</v>
+        <v>0.6615012221222417</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.6818831199191955</v>
+        <v>0.6817710472065259</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.6010641720028929</v>
+        <v>0.5944141446666016</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.5222949168186946</v>
+        <v>0.5088195122404062</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.5103734439834025</v>
+        <v>2.79253112033195</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.1442320321035588</v>
+        <v>0.9522485582744785</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>241.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.7302369939089886</v>
+        <v>0.7609993700427164</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.6964600647736641</v>
+        <v>0.7816963971085583</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.6075083028987367</v>
+        <v>0.7356326345039239</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.5400514014650831</v>
+        <v>0.652490786180039</v>
       </c>
       <c r="G24" t="n" s="317">
         <v>2.087136929460581</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.2733978896397096</v>
+        <v>0.883105610146487</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>241.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.6615012221222417</v>
+        <v>0.6997749979609802</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.6817710472065259</v>
+        <v>0.6818831199191955</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.5944141446666016</v>
+        <v>0.6010641720028929</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.5088195122404062</v>
+        <v>0.5222949168186946</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.79253112033195</v>
+        <v>2.5103734439834025</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.9522485582744785</v>
+        <v>1.1442320321035588</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>241.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.5748754190957621</v>
+        <v>0.7302369939089886</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.5857237872974252</v>
+        <v>0.6964600647736641</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.45805455622194463</v>
+        <v>0.6075083028987367</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.37825705134288695</v>
+        <v>0.5400514014650831</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.4107883817427385</v>
+        <v>2.087136929460581</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.0494680204105573</v>
+        <v>1.2733978896397096</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.23651452282157676</v>
+        <v>0.06224066390041494</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.5311203319502075</v>
+        <v>0.12448132780082988</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.16182572614107885</v>
+        <v>0.2697095435684647</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.04979253112033195</v>
+        <v>0.42738589211618255</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.02074688796680498</v>
+        <v>0.11618257261410789</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.1991701244813278</v>
+        <v>0.06224066390041494</v>
       </c>
       <c r="C33" t="n" s="338">
-        <v>0.3775933609958506</v>
+        <v>0.34024896265560167</v>
       </c>
       <c r="D33" t="n" s="339">
-        <v>0.17842323651452283</v>
+        <v>0.3900414937759336</v>
       </c>
       <c r="E33" t="n" s="340">
-        <v>0.2033195020746888</v>
+        <v>0.15767634854771784</v>
       </c>
       <c r="F33" t="n" s="341">
-        <v>0.04149377593360996</v>
+        <v>0.04979253112033195</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.45228215767634855</v>
+        <v>0.23651452282157676</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.24896265560165975</v>
+        <v>0.5311203319502075</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.13278008298755187</v>
+        <v>0.16182572614107885</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.0912863070539419</v>
+        <v>0.04979253112033195</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.07468879668049792</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.06224066390041494</v>
+        <v>0.1991701244813278</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.34024896265560167</v>
+        <v>0.3775933609958506</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.3900414937759336</v>
+        <v>0.17842323651452283</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.15767634854771784</v>
+        <v>0.2033195020746888</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.04979253112033195</v>
+        <v>0.04149377593360996</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.06224066390041494</v>
+        <v>0.45228215767634855</v>
       </c>
       <c r="C36" t="n" s="338">
-        <v>0.12448132780082988</v>
+        <v>0.24896265560165975</v>
       </c>
       <c r="D36" t="n" s="339">
-        <v>0.2697095435684647</v>
+        <v>0.13278008298755187</v>
       </c>
       <c r="E36" t="n" s="340">
-        <v>0.42738589211618255</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.11618257261410789</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.8216289450309756</v>
+        <v>0.6804704137190891</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.8226267185530358</v>
+        <v>0.6820337944786093</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.8082301919315149</v>
+        <v>0.590930137425856</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.3985131780303873</v>
+        <v>0.41690829637873916</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>4.637827703486482</v>
+        <v>2.1449883120762228</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.01732136471204307</v>
+        <v>0.03499680143018241</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.861292234736218</v>
+        <v>2.6887966804979255</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.7085961905534283</v>
+        <v>0.8269023407719439</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.380149408324027</v>
+        <v>0.42027609610645045</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.7806058963397356</v>
+        <v>0.5408103196744389</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.7832205061831414</v>
+        <v>0.5416006387439982</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7605778842404531</v>
+        <v>0.37136648104231307</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.3758440699711125</v>
+        <v>0.37136648104231296</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>3.612982447707106</v>
+        <v>1.1815039123528168</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.021880730932448494</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.006076070962357962</v>
-      </c>
+        <v>0.059020833480962105</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.36541732114824194</v>
+        <v>0.3713664810423129</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7865806866656965</v>
+        <v>0.5831807356443501</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7875099145833165</v>
+        <v>0.5918230930712651</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7638645900718319</v>
+        <v>0.42027609610645034</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.3818321663599749</v>
+        <v>0.42027609610645045</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>3.70610192489238</v>
+        <v>1.449918118896897</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.020954198202855715</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.005020716763583931</v>
-      </c>
+        <v>0.0523637623187715</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.37136648104231296</v>
+        <v>0.42027609610645045</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7928061536249595</v>
+        <v>0.6249792862782562</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.7916304789980749</v>
+        <v>0.6292754126559539</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7667908161716401</v>
+        <v>0.4590823119874542</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.3877030181174285</v>
+        <v>0.4590823119874543</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>3.7991663809159553</v>
+        <v>1.697420225521657</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.020394325842757466</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.004393364635304945</v>
-      </c>
+        <v>0.04770892799637516</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.37381168510883134</v>
+        <v>0.45908231198745425</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.8106514283275935</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.8127376579023635</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.7935994115844311</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.41973492878244073</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>4.34010195962737</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.018674924600904908</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.006077686568126376</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.4464706059137697</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.7995030382434661</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.8007539012234769</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7799224523665312</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.4011329872363746</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>4.018918845289978</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.01972219034066039</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.0054649288046129665</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.380149408324027</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.801816871621585</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.8027713157941437</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.7831030599688952</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.4041859753401508</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>4.070256408323732</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.019467450608462587</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.007592152621573128</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.4140221674904969</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.8105272641438038</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.8123774974107238</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.7899222166541571</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.4191591004052295</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>4.329851090351869</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.01863648202006164</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.005136257025490805</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.42027609610645045</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>241.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8276514297163938</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.8012555208524137</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.6447373900352741</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.5315945159768759</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.929460580912863</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.1793374373553969</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>241.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.7747726325939631</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.7804031390373595</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.5989147132557868</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.4969887692527312</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.236514522821577</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.0237160092020356</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>241.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7404119366224517</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7638582934218917</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.5593932298927655</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.4650120133182985</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.900414937759336</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.9609239444978291</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>241.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7824406774650239</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7658094781530463</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7238469834099428</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.6583641566315482</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.929460580912863</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.1793374373553969</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.16182572614107885</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.16597510373443983</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.33195020746887965</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.26141078838174275</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.07883817427385892</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>241.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.7458580210180735</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.7473736749530143</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.7017729907285283</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.6289237093300577</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.7510373443983402</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>1.026852473710928</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.29045643153526973</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.3029045643153527</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.3070539419087137</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.07883817427385892</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.02074688796680498</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>241.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.7124079667626841</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7292988377112014</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.6790314467828856</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.6084755473666198</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.66804979253112</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.8646868012043668</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>241.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.6277389014759073</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.630680852496478</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.5279332685856671</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.4831539745829335</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.775933609958506</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.982981041987754</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>241.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.6950109375343602</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.6879514291892033</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6143706370704766</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.5546015363950457</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.767634854771784</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.0704118208023565</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>241.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.6693602055828263</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6785520668212317</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.5960263090992429</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.5391759054067646</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.900414937759336</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.9609239444978291</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>241.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6362196283851301</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.6324536794434531</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5371333631473282</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.4866955188271173</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.236514522821577</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.0237160092020356</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.16182572614107885</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.16597510373443983</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.33195020746887965</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.26141078838174275</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.07883817427385892</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.03319502074688797</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.5062240663900415</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.21161825726141079</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.17427385892116182</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.07468879668049792</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.06639004149377593</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.35269709543568467</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.46887966804979253</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.07053941908713693</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.04149377593360996</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.004149377593360996</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.0954356846473029</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.3070539419087137</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.3070539419087137</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.2863070539419087</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.0995850622406639</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.36929460580912865</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.24066390041493776</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.24481327800829875</v>
-      </c>
-      <c r="F37" t="n" s="455">
+      <c r="B27" t="n" s="451">
+        <v>0.08298755186721991</v>
+      </c>
+      <c r="C27" t="n" s="452">
+        <v>0.21991701244813278</v>
+      </c>
+      <c r="D27" t="n" s="453">
+        <v>0.45643153526970953</v>
+      </c>
+      <c r="E27" t="n" s="454">
+        <v>0.1950207468879668</v>
+      </c>
+      <c r="F27" t="n" s="455">
         <v>0.04564315352697095</v>
       </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.08298755186721991</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.21991701244813278</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.45643153526970953</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.1950207468879668</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.04564315352697095</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.29045643153526973</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.3029045643153527</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.3070539419087137</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.07883817427385892</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.02074688796680498</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
